--- a/informes-excel/David-Tua.xlsx
+++ b/informes-excel/David-Tua.xlsx
@@ -44,7 +44,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>887</t>
+    <t>876</t>
   </si>
 </sst>
 </file>
@@ -79,12 +79,12 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor rgb="CDFFC4"/>
+        <fgColor rgb="C4DBFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="CDFFC4"/>
+        <fgColor rgb="C4DBFF"/>
       </patternFill>
     </fill>
   </fills>
